--- a/output/fit_clients/fit_round_139.xlsx
+++ b/output/fit_clients/fit_round_139.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2263939330.324382</v>
+        <v>1970199826.003463</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07631528546951823</v>
+        <v>0.08634375367047209</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03900466458374045</v>
+        <v>0.0333402816405469</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1131969696.287006</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2203346112.164756</v>
+        <v>1691870934.097492</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1286190032288444</v>
+        <v>0.1360079918047317</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03925225516022179</v>
+        <v>0.04434184511572482</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1101673127.58925</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3650513239.294502</v>
+        <v>4724802460.324818</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1084157918957726</v>
+        <v>0.1330625637700409</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0292844498564234</v>
+        <v>0.03182735165310124</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1825256609.019772</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2583402823.476726</v>
+        <v>3775066887.872835</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0669325752608091</v>
+        <v>0.09819133565450611</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03558164062779357</v>
+        <v>0.03414981869910519</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1291701509.124848</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2314708193.955111</v>
+        <v>1848288614.947634</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1227176343441305</v>
+        <v>0.102379869554385</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04325887642223795</v>
+        <v>0.03437055273980014</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1157354092.46816</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2551806327.351587</v>
+        <v>3104332914.76618</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07167554253018456</v>
+        <v>0.07606913026844467</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04868635361284152</v>
+        <v>0.03062257885179307</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1275903171.722338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3856285126.765965</v>
+        <v>3295787045.136574</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2097430797667762</v>
+        <v>0.188307916863681</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0229825902534893</v>
+        <v>0.03102127893038988</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1928142708.389699</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1908936306.770613</v>
+        <v>2259523573.649451</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1274481581544535</v>
+        <v>0.1918234236464531</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03564780152028106</v>
+        <v>0.03289517949569509</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>954468192.5832796</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3760168464.071325</v>
+        <v>3673836434.994631</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1581062564748618</v>
+        <v>0.2144018630794741</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03524768836858011</v>
+        <v>0.03914910951939641</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>58</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1880084235.292567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4256897459.232</v>
+        <v>2657875949.704049</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1580360739052386</v>
+        <v>0.1611844424973701</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03609976938479675</v>
+        <v>0.03779588520136852</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>57</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2128448760.183609</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2392047752.55625</v>
+        <v>2018351683.857939</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1453681256634907</v>
+        <v>0.1266624337524261</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0360887730603142</v>
+        <v>0.05011786861682466</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>49</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1196023838.560304</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3762869534.021703</v>
+        <v>4923933843.937648</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07770683569592476</v>
+        <v>0.07776873901269325</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02519081759667606</v>
+        <v>0.02747136508253079</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>47</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1881434833.945199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2986075181.234498</v>
+        <v>2852397707.529576</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1308541744903877</v>
+        <v>0.1165209110675382</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03564892982557629</v>
+        <v>0.03486255784364585</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>44</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1493037626.018178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1235368801.39036</v>
+        <v>1668327993.065196</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1077767187383786</v>
+        <v>0.07166502262990858</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04324940301765695</v>
+        <v>0.03118590122305962</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>617684426.1579423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2504375921.414403</v>
+        <v>2269830699.124887</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1140144239294651</v>
+        <v>0.07071523518907089</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04933615608632366</v>
+        <v>0.04257302890801452</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1252187991.085728</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3893978701.866977</v>
+        <v>3683978070.342153</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1360175210624759</v>
+        <v>0.1326314432456261</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04021483666249099</v>
+        <v>0.03418040629930612</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1946989390.7407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3167189193.480941</v>
+        <v>3003488345.700691</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1700617634975369</v>
+        <v>0.1450166055314689</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03028660392947505</v>
+        <v>0.03247898876842047</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>45</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1583594614.854644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1234243394.233701</v>
+        <v>1098975931.281079</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1479152817023428</v>
+        <v>0.1323496101530025</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01772677605384666</v>
+        <v>0.02168962328565023</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>617121783.3083814</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2558637733.785655</v>
+        <v>2086232872.232927</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1214673168229915</v>
+        <v>0.1430789894981807</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02594591869440928</v>
+        <v>0.02069059502618695</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1279318833.70683</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2042598856.10127</v>
+        <v>2157292019.950239</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0762412879239926</v>
+        <v>0.07038150597094513</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03008734690083077</v>
+        <v>0.03563642744810051</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1021299459.90237</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3437926175.307058</v>
+        <v>3786161702.193764</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1295706599202738</v>
+        <v>0.1287443071344661</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04622562753117509</v>
+        <v>0.04633029885426651</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>40</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1718963122.915817</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1200514249.236273</v>
+        <v>980958735.592288</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1335533004212154</v>
+        <v>0.1749127063408971</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03981679727355419</v>
+        <v>0.05230284592555055</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>600257160.974642</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2897303555.952058</v>
+        <v>2571664361.573909</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1259837780959802</v>
+        <v>0.1147420240331949</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03171526314008393</v>
+        <v>0.02385013881912263</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>40</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1448651820.077803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1165121227.479403</v>
+        <v>1138690222.886274</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09160428898114682</v>
+        <v>0.1067910580646037</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01921871909153731</v>
+        <v>0.02480291053030084</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>582560639.6953002</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1297114468.75347</v>
+        <v>953680054.0060736</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09903024247358938</v>
+        <v>0.08449287589480495</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03589892872883545</v>
+        <v>0.02584048547314862</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>648557279.1243998</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3399800581.681848</v>
+        <v>3124404780.204737</v>
       </c>
       <c r="F27" t="n">
-        <v>0.12696972974673</v>
+        <v>0.1175453029565052</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02014265158508265</v>
+        <v>0.01647833736376382</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1699900330.789097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3529234124.539632</v>
+        <v>3174479097.480806</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1069231579939654</v>
+        <v>0.123969740745374</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03553548704437447</v>
+        <v>0.03043387630181926</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>45</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1764617119.382259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3922734081.014422</v>
+        <v>5126849153.101241</v>
       </c>
       <c r="F29" t="n">
-        <v>0.120247925614447</v>
+        <v>0.1095757872576099</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04573692424843779</v>
+        <v>0.04615295831090198</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1961367062.651797</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1843675423.901671</v>
+        <v>1642500082.821846</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08514357706367805</v>
+        <v>0.1244190743500015</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0396701436737591</v>
+        <v>0.03871554715934111</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>921837731.5416576</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1358727228.465115</v>
+        <v>1331844889.399202</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1088404911639492</v>
+        <v>0.09456312839423847</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04488099764191331</v>
+        <v>0.03456582582153327</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>679363528.3020844</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1670475884.873844</v>
+        <v>1341743485.057344</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07395773782355554</v>
+        <v>0.07517970682569255</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03166631998767406</v>
+        <v>0.03451056486164345</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>835238046.0320678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2008326543.128816</v>
+        <v>2064222889.833517</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1856494025340536</v>
+        <v>0.1928773958357015</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03716215716383865</v>
+        <v>0.05304696643544767</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>42</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1004163351.61701</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1469424702.496819</v>
+        <v>1160069462.382009</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1195213154893765</v>
+        <v>0.1169222587131847</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02576900951639669</v>
+        <v>0.02216927030456053</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>734712312.0441644</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>980980705.8597014</v>
+        <v>1069892788.746237</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1067837880493216</v>
+        <v>0.1034357890871806</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03253457738914615</v>
+        <v>0.02776389432949694</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>490490375.643211</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2453135455.788768</v>
+        <v>2878871350.401669</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1659731754710472</v>
+        <v>0.1634682909339749</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02330994025589362</v>
+        <v>0.02826670166616706</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>35</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1226567753.583321</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2470395929.635747</v>
+        <v>2025994738.473788</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1102790199254897</v>
+        <v>0.08895579523856116</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02823977468731336</v>
+        <v>0.04261274406082495</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>38</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1235198056.752132</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1930819967.579119</v>
+        <v>2092528472.885368</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1225542269934791</v>
+        <v>0.09208308760271132</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0357030703419407</v>
+        <v>0.03488033242246518</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>965409972.1476231</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1561248704.579832</v>
+        <v>1527728378.868304</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1889902880302094</v>
+        <v>0.1612217468529028</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03229598677207467</v>
+        <v>0.02586300294746009</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>780624413.4081212</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1609101273.125346</v>
+        <v>1577930243.289072</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1610130212731077</v>
+        <v>0.1151338440319053</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05250142876193793</v>
+        <v>0.03954132663415252</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>804550575.3994181</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2104593600.608378</v>
+        <v>2264043962.054809</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1077052389604994</v>
+        <v>0.1056136076117887</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03577740348732123</v>
+        <v>0.04070950512744001</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>34</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1052296864.215743</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3479069711.549293</v>
+        <v>4040645132.630741</v>
       </c>
       <c r="F42" t="n">
-        <v>0.108670959409264</v>
+        <v>0.1212841167779564</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02878501421515944</v>
+        <v>0.03215042300145805</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1739534849.142043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2127836733.984984</v>
+        <v>2675093617.216548</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1307919691106972</v>
+        <v>0.1287212679816589</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01833943283942241</v>
+        <v>0.02270363687311678</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>47</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1063918453.033839</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2303261120.592408</v>
+        <v>2158017737.070654</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1018526184114213</v>
+        <v>0.09474948880904586</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03655636576147589</v>
+        <v>0.02459692199486785</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1151630727.101421</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1652513829.691521</v>
+        <v>1763728585.444259</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1292651136668751</v>
+        <v>0.1891556114769056</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03710403889606242</v>
+        <v>0.05473469510979759</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>826256870.6629061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5643357517.144038</v>
+        <v>5103792857.838449</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1095960111783652</v>
+        <v>0.1472315649142791</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05381561922560375</v>
+        <v>0.05591065773431677</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>49</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2821678822.144121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3433800629.364215</v>
+        <v>4334703442.737017</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1740173153045446</v>
+        <v>0.129834558952943</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05753757124556641</v>
+        <v>0.04653155956608427</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>37</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1716900281.684314</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3650145580.135542</v>
+        <v>3727355286.791219</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07353579642224374</v>
+        <v>0.0816236183315194</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0237988261503612</v>
+        <v>0.0323196815717537</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1825072844.714579</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1979883748.893359</v>
+        <v>1584025168.847816</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1484980678901922</v>
+        <v>0.1373768259781661</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02816503084740826</v>
+        <v>0.03085060476153268</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>989941831.8196485</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4223260493.642767</v>
+        <v>2632024623.396044</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1312645710558653</v>
+        <v>0.1545853040581993</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04210028702516781</v>
+        <v>0.03520751461874987</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>47</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2111630219.577995</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1407746235.301735</v>
+        <v>1179035519.992622</v>
       </c>
       <c r="F51" t="n">
-        <v>0.138974263451306</v>
+        <v>0.1773674213943175</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04938987070128405</v>
+        <v>0.03780576592230338</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>703873135.4991817</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3402252498.167344</v>
+        <v>4535570489.220209</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1135263575033366</v>
+        <v>0.1343887723839237</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0464720070326775</v>
+        <v>0.04196987856107923</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>57</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1701126340.706127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3242598801.5925</v>
+        <v>2572348356.717958</v>
       </c>
       <c r="F53" t="n">
-        <v>0.151120348923022</v>
+        <v>0.1323226633237372</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03174822123406237</v>
+        <v>0.03063646419774768</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1621299416.457248</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4717999478.001686</v>
+        <v>4431155678.00323</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1319361794181693</v>
+        <v>0.1109035633954276</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04282645937586938</v>
+        <v>0.03240839231374661</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>46</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2358999859.387241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3280954777.98237</v>
+        <v>4621755988.239866</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1830604256791283</v>
+        <v>0.1367957065514091</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03172549158722548</v>
+        <v>0.0270913416809981</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1640477332.142032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1577681846.873107</v>
+        <v>1249387905.048215</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1246641218847159</v>
+        <v>0.156007747032009</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03516891128000825</v>
+        <v>0.04852023067363365</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>788840954.1389408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2833553266.510623</v>
+        <v>3080573671.276234</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1269036530026603</v>
+        <v>0.1534333864326725</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0269934269999995</v>
+        <v>0.0262403467676751</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>45</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1416776623.650985</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1181314754.577325</v>
+        <v>1757809618.51292</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1822316349866699</v>
+        <v>0.1951453625638573</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03388206383230831</v>
+        <v>0.03209570593641078</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>590657437.4591917</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4449373746.834817</v>
+        <v>4001454537.701848</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09355724763329429</v>
+        <v>0.1291504537155977</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03039390122402475</v>
+        <v>0.03515237168857362</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2224686827.655489</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2630911435.786877</v>
+        <v>3422190397.558013</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1290876561847719</v>
+        <v>0.1622698108102531</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02848856758186833</v>
+        <v>0.03224206412304032</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1315455749.494109</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3232198221.320917</v>
+        <v>2265957343.639572</v>
       </c>
       <c r="F61" t="n">
-        <v>0.13864774188764</v>
+        <v>0.1376979191953435</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03092851492554083</v>
+        <v>0.02180628789943385</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>48</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1616099069.187524</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1984271087.905408</v>
+        <v>2121943729.679499</v>
       </c>
       <c r="F62" t="n">
-        <v>0.158622946211416</v>
+        <v>0.1795258856183053</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04534660750863603</v>
+        <v>0.04986811309697878</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>992135599.6358918</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4825416127.842751</v>
+        <v>3925587275.090314</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07398576016959692</v>
+        <v>0.07654197726553623</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04350343186170153</v>
+        <v>0.04027386160194462</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>39</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2412708089.431923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5151433288.016354</v>
+        <v>3569010818.266919</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1837861682868803</v>
+        <v>0.126987497304811</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02827867620929047</v>
+        <v>0.03309763267104157</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>43</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2575716760.815745</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5820622744.984858</v>
+        <v>5447931736.866569</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1154522570092993</v>
+        <v>0.1416367687648325</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02786756497060055</v>
+        <v>0.03079454010539477</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>50</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2910311282.403128</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4719914605.714467</v>
+        <v>5697967189.958043</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1008082638722863</v>
+        <v>0.1430296933991458</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03518332236620833</v>
+        <v>0.04912776189878607</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>40</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2359957315.002496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3023739904.928515</v>
+        <v>2634586448.889179</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09609538275654277</v>
+        <v>0.071371629009282</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0312680811364726</v>
+        <v>0.03248271665833043</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>45</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1511869968.644293</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5548270549.757043</v>
+        <v>4308795087.284164</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1226880218676807</v>
+        <v>0.1211449445923668</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05025683483389479</v>
+        <v>0.04602232151054773</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>44</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2774135364.436422</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1601719756.00337</v>
+        <v>1532602161.015854</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1367077728905906</v>
+        <v>0.1669657022469424</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05737109378997208</v>
+        <v>0.05584021403080936</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>800859831.4165101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3706059118.812753</v>
+        <v>3574784874.794091</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09961416294574481</v>
+        <v>0.09898725371523694</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0437624249458725</v>
+        <v>0.04042279473742897</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>40</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1853029582.267782</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4516671864.613649</v>
+        <v>3902844589.264161</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1295841825068612</v>
+        <v>0.1346131263698792</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02830587216223645</v>
+        <v>0.03241892020167443</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>50</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2258336001.90478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1379163231.554807</v>
+        <v>2027400591.11029</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08131697185696984</v>
+        <v>0.09602016551966532</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04993366548299583</v>
+        <v>0.03898037118840693</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>689581662.1763049</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2966903764.312048</v>
+        <v>2597659468.329242</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1011713452892564</v>
+        <v>0.08048277708337055</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05052951921069346</v>
+        <v>0.03316527483774501</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>52</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1483451881.123519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3819319688.207046</v>
+        <v>3564350215.233537</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1397346921074476</v>
+        <v>0.1619680797525367</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0319571646316065</v>
+        <v>0.02395855909122733</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>48</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1909659838.645522</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1833109917.789507</v>
+        <v>1874768912.244411</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1611297284555059</v>
+        <v>0.1177462469433567</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03379162458551898</v>
+        <v>0.03074777602834322</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>916554938.683864</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3919922168.014872</v>
+        <v>4221570150.698195</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1102110716381394</v>
+        <v>0.08047175489019928</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02852258929233301</v>
+        <v>0.02963778702865354</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>31</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1959961065.28719</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2062770121.140593</v>
+        <v>2086069986.171814</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1868194058183495</v>
+        <v>0.184467693502492</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0240321537275986</v>
+        <v>0.02440969597379989</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1031385131.346625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3726105615.523535</v>
+        <v>2958319524.056556</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1226936532331523</v>
+        <v>0.1297700680965678</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05718216020655562</v>
+        <v>0.05008934625677729</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>49</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1863052793.067509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1588183057.265686</v>
+        <v>1872181356.790926</v>
       </c>
       <c r="F79" t="n">
-        <v>0.161638980220058</v>
+        <v>0.152901630601754</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03723407856615122</v>
+        <v>0.03109144502777193</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>794091578.2199842</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5279103434.257282</v>
+        <v>5023494798.149344</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08984759861592204</v>
+        <v>0.1067615221605779</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0307916426721081</v>
+        <v>0.02398938323606392</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>29</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2639551780.170403</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4867547342.307404</v>
+        <v>4155062172.554452</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09490651805114385</v>
+        <v>0.1079790864874706</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02896676754494517</v>
+        <v>0.02391463274344819</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>31</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2433773666.558835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4398717526.024357</v>
+        <v>5070916126.075388</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1432845654119344</v>
+        <v>0.1702019293993265</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02674606449395318</v>
+        <v>0.02620960237920383</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>52</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2199358780.470326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2447724322.483234</v>
+        <v>2203753064.576797</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1316548756895606</v>
+        <v>0.127070437948697</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03729408484659822</v>
+        <v>0.04236184085449978</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1223862202.259094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1759297576.798316</v>
+        <v>2290961833.128844</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1025089534403036</v>
+        <v>0.1066803594153762</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03278020554827319</v>
+        <v>0.04675315788725633</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>879648828.5992271</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2693286751.927302</v>
+        <v>2718508774.496362</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1681721583988962</v>
+        <v>0.1687875331806676</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03978688987011898</v>
+        <v>0.048534267663334</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>52</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1346643402.206593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1703513810.120464</v>
+        <v>2080220034.002051</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1179690342850595</v>
+        <v>0.1090694863856465</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01986220854549818</v>
+        <v>0.02544006228228387</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>851756891.3890922</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1136470184.619323</v>
+        <v>1417270066.315843</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1875033742507195</v>
+        <v>0.1526435074749628</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03313768496940864</v>
+        <v>0.04445991285833933</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>568235131.5624818</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3512600314.239679</v>
+        <v>2756478954.293357</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1338358997340069</v>
+        <v>0.1236596537706751</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02608331183763118</v>
+        <v>0.02645212294334217</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>55</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1756300238.164937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3072380175.058965</v>
+        <v>3330079836.455396</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09705998605551422</v>
+        <v>0.1323287788278038</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0368292162672642</v>
+        <v>0.04024619566765417</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>48</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1536190120.29738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1473678599.991679</v>
+        <v>1850865150.626314</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1286143972648778</v>
+        <v>0.09780224505814077</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05638755871128322</v>
+        <v>0.0377608997154705</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>736839273.8652326</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1907064566.559915</v>
+        <v>1731548868.74531</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1425370307921543</v>
+        <v>0.1346421277347304</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05945843983692189</v>
+        <v>0.03944029497923369</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>953532267.9017686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2412383896.286912</v>
+        <v>1927552220.82829</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09876555887027084</v>
+        <v>0.09775870259932179</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03028243148975078</v>
+        <v>0.03681765872370032</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1206191925.421201</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4224139805.304332</v>
+        <v>3146423731.425257</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1156863026319015</v>
+        <v>0.1291077398635511</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04504055038451884</v>
+        <v>0.04926249708311261</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>42</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2112069888.735127</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1737171584.889238</v>
+        <v>2210446798.905302</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1078688141264463</v>
+        <v>0.1516892932351019</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0343983048606183</v>
+        <v>0.03099144417361272</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>868585756.5142881</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2573931423.32737</v>
+        <v>2698403773.69935</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1162825843590319</v>
+        <v>0.1310360584186251</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04718386813555274</v>
+        <v>0.03956520869442113</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>33</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1286965742.329863</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2211498756.85018</v>
+        <v>2238898981.737441</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1168061313241695</v>
+        <v>0.1317323652168732</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04369703942639023</v>
+        <v>0.04610679636122612</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1105749342.767203</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4492935061.304347</v>
+        <v>4323990516.931458</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1581574898255975</v>
+        <v>0.1285969087265692</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02578095053806744</v>
+        <v>0.0264885607925652</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2246467626.629515</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3874338923.0843</v>
+        <v>2538998370.242728</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09522691411348989</v>
+        <v>0.1210868897432377</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02798189582221816</v>
+        <v>0.02125593010082766</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>37</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1937169505.476124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3435308864.763972</v>
+        <v>3368381070.683633</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09788782251486906</v>
+        <v>0.1421676087059501</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02241664082865483</v>
+        <v>0.02222009585754425</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>43</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1717654449.824092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3969636048.897882</v>
+        <v>4380563584.488779</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1631324985705989</v>
+        <v>0.1743187686173095</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02712257422645557</v>
+        <v>0.0199163805356285</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>42</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1984818092.65472</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2464328285.986902</v>
+        <v>2248400961.838048</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1645645945238281</v>
+        <v>0.1757252039879464</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05320243525270772</v>
+        <v>0.04329824901233601</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>57</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1232164161.252023</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_139.xlsx
+++ b/output/fit_clients/fit_round_139.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1970199826.003463</v>
+        <v>1769405002.251567</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08634375367047209</v>
+        <v>0.1025134240008647</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0333402816405469</v>
+        <v>0.03075187647108511</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1691870934.097492</v>
+        <v>1824869425.675155</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1360079918047317</v>
+        <v>0.141198873089659</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04434184511572482</v>
+        <v>0.04987177047924621</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4724802460.324818</v>
+        <v>3558146158.604505</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1330625637700409</v>
+        <v>0.1108554991392946</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03182735165310124</v>
+        <v>0.03227753851124021</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3775066887.872835</v>
+        <v>2748775644.390591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09819133565450611</v>
+        <v>0.06716544482390745</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03414981869910519</v>
+        <v>0.04117589575488991</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1848288614.947634</v>
+        <v>2666500662.037445</v>
       </c>
       <c r="F6" t="n">
-        <v>0.102379869554385</v>
+        <v>0.1080883780249103</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03437055273980014</v>
+        <v>0.04576699369467713</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3104332914.76618</v>
+        <v>1998849195.60824</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07606913026844467</v>
+        <v>0.08557243747816586</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03062257885179307</v>
+        <v>0.03405845226497582</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3295787045.136574</v>
+        <v>3626570871.607615</v>
       </c>
       <c r="F8" t="n">
-        <v>0.188307916863681</v>
+        <v>0.1886578694677388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03102127893038988</v>
+        <v>0.03234010122696297</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2259523573.649451</v>
+        <v>1553714707.172476</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1918234236464531</v>
+        <v>0.1572549568384156</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03289517949569509</v>
+        <v>0.02639279657386007</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3673836434.994631</v>
+        <v>3940813666.435828</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2144018630794741</v>
+        <v>0.1321591630712744</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03914910951939641</v>
+        <v>0.04021911231426831</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2657875949.704049</v>
+        <v>3958269487.113626</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1611844424973701</v>
+        <v>0.1685601474645569</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03779588520136852</v>
+        <v>0.04933771391522636</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2018351683.857939</v>
+        <v>2665982773.932674</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1266624337524261</v>
+        <v>0.1773936367983412</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05011786861682466</v>
+        <v>0.05156129226875248</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4923933843.937648</v>
+        <v>3468408559.780485</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07776873901269325</v>
+        <v>0.09389998005259181</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02747136508253079</v>
+        <v>0.03128731189089042</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2852397707.529576</v>
+        <v>2719359597.305859</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1165209110675382</v>
+        <v>0.1578786051785687</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03486255784364585</v>
+        <v>0.0274702801084877</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1668327993.065196</v>
+        <v>1537064696.393897</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07166502262990858</v>
+        <v>0.08584209772573577</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03118590122305962</v>
+        <v>0.03113191143709142</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2269830699.124887</v>
+        <v>2849469720.708861</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07071523518907089</v>
+        <v>0.1007478585834184</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04257302890801452</v>
+        <v>0.0460732645329766</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3683978070.342153</v>
+        <v>4471370951.533974</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1326314432456261</v>
+        <v>0.1717553589522744</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03418040629930612</v>
+        <v>0.03526599015336176</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3003488345.700691</v>
+        <v>3935949544.830171</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1450166055314689</v>
+        <v>0.117315590441708</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03247898876842047</v>
+        <v>0.02866766417998892</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1098975931.281079</v>
+        <v>1265088602.547967</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1323496101530025</v>
+        <v>0.1736959445891594</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02168962328565023</v>
+        <v>0.02484061499527808</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2086232872.232927</v>
+        <v>2341490856.130653</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1430789894981807</v>
+        <v>0.1237031514798237</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02069059502618695</v>
+        <v>0.03066235599857279</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2157292019.950239</v>
+        <v>2037565274.169744</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07038150597094513</v>
+        <v>0.07507632998664987</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03563642744810051</v>
+        <v>0.03077964578395321</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3786161702.193764</v>
+        <v>2511415182.376561</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1287443071344661</v>
+        <v>0.09840273952416256</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04633029885426651</v>
+        <v>0.05688006202663567</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>980958735.592288</v>
+        <v>1092792896.516731</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1749127063408971</v>
+        <v>0.1260156525796691</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05230284592555055</v>
+        <v>0.04521050572702148</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2571664361.573909</v>
+        <v>2970520178.71602</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1147420240331949</v>
+        <v>0.1124044187098337</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02385013881912263</v>
+        <v>0.03008910668225552</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1138690222.886274</v>
+        <v>1074157099.427914</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1067910580646037</v>
+        <v>0.07810270858704367</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02480291053030084</v>
+        <v>0.02361449617582784</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>953680054.0060736</v>
+        <v>1138754586.936831</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08449287589480495</v>
+        <v>0.1174034752507374</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02584048547314862</v>
+        <v>0.03725596800122896</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3124404780.204737</v>
+        <v>4101376056.372095</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1175453029565052</v>
+        <v>0.1167662876894772</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01647833736376382</v>
+        <v>0.01956981763216628</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3174479097.480806</v>
+        <v>3348707687.795236</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123969740745374</v>
+        <v>0.1046457068085617</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03043387630181926</v>
+        <v>0.04283038714370515</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5126849153.101241</v>
+        <v>5090537180.186954</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1095757872576099</v>
+        <v>0.1439258112940509</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04615295831090198</v>
+        <v>0.04342127960406909</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1642500082.821846</v>
+        <v>2034919554.357047</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1244190743500015</v>
+        <v>0.09421999516673879</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03871554715934111</v>
+        <v>0.03111314663137534</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1331844889.399202</v>
+        <v>928408579.5946909</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09456312839423847</v>
+        <v>0.08173102604650166</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03456582582153327</v>
+        <v>0.03833686103985734</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1341743485.057344</v>
+        <v>1872708149.220598</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07517970682569255</v>
+        <v>0.09114074485281803</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03451056486164345</v>
+        <v>0.03419536178319256</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2064222889.833517</v>
+        <v>1998964958.272204</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1928773958357015</v>
+        <v>0.1469783456821515</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05304696643544767</v>
+        <v>0.05285827725647815</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1160069462.382009</v>
+        <v>1498735363.201664</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1169222587131847</v>
+        <v>0.1006577775214397</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02216927030456053</v>
+        <v>0.02136500266109731</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1069892788.746237</v>
+        <v>1130099512.69046</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1034357890871806</v>
+        <v>0.08399036877469354</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02776389432949694</v>
+        <v>0.03561429744810835</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2878871350.401669</v>
+        <v>3010176866.753601</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1634682909339749</v>
+        <v>0.1647905296953959</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02826670166616706</v>
+        <v>0.01906290203874693</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2025994738.473788</v>
+        <v>2017401841.972214</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08895579523856116</v>
+        <v>0.1108265080583488</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04261274406082495</v>
+        <v>0.0377358237011361</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2092528472.885368</v>
+        <v>1543720612.53282</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09208308760271132</v>
+        <v>0.09541046507296259</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03488033242246518</v>
+        <v>0.02917412310843899</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1527728378.868304</v>
+        <v>2140168082.639312</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1612217468529028</v>
+        <v>0.1267549597972155</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02586300294746009</v>
+        <v>0.02129451747207507</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1577930243.289072</v>
+        <v>1632354686.97013</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1151338440319053</v>
+        <v>0.1556953938077443</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03954132663415252</v>
+        <v>0.04581316670027932</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2264043962.054809</v>
+        <v>1974697800.932866</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1056136076117887</v>
+        <v>0.1399383209121444</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04070950512744001</v>
+        <v>0.04174192540869576</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4040645132.630741</v>
+        <v>4185986820.039176</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1212841167779564</v>
+        <v>0.1024091568437691</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03215042300145805</v>
+        <v>0.03233727028931483</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2675093617.216548</v>
+        <v>2302726681.775721</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1287212679816589</v>
+        <v>0.1919513575244282</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02270363687311678</v>
+        <v>0.01927292740492199</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2158017737.070654</v>
+        <v>1823803440.21251</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09474948880904586</v>
+        <v>0.08425062146405035</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02459692199486785</v>
+        <v>0.02799046476631598</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1763728585.444259</v>
+        <v>2193969788.594318</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1891556114769056</v>
+        <v>0.1293861272059111</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05473469510979759</v>
+        <v>0.04559943703914349</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5103792857.838449</v>
+        <v>3637138447.863574</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1472315649142791</v>
+        <v>0.1313259775024253</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05591065773431677</v>
+        <v>0.04825137105749201</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4334703442.737017</v>
+        <v>3281600911.697555</v>
       </c>
       <c r="F47" t="n">
-        <v>0.129834558952943</v>
+        <v>0.1891343031072201</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04653155956608427</v>
+        <v>0.04843219098835547</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3727355286.791219</v>
+        <v>4035423148.559425</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0816236183315194</v>
+        <v>0.09992058867148533</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0323196815717537</v>
+        <v>0.03647805807208554</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1584025168.847816</v>
+        <v>1547393447.283833</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1373768259781661</v>
+        <v>0.1495979898852572</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03085060476153268</v>
+        <v>0.02924198498169419</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2632024623.396044</v>
+        <v>3700752422.631873</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1545853040581993</v>
+        <v>0.1234948674152138</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03520751461874987</v>
+        <v>0.03714014862082207</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1179035519.992622</v>
+        <v>971205851.5417312</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1773674213943175</v>
+        <v>0.1434278087545822</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03780576592230338</v>
+        <v>0.0496354718154195</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4535570489.220209</v>
+        <v>3444988402.038918</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1343887723839237</v>
+        <v>0.1259732565440218</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04196987856107923</v>
+        <v>0.03957866025111124</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2572348356.717958</v>
+        <v>3039045468.101838</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1323226633237372</v>
+        <v>0.125412205794118</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03063646419774768</v>
+        <v>0.02801242300670393</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4431155678.00323</v>
+        <v>4097412176.592603</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1109035633954276</v>
+        <v>0.1627536561228027</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03240839231374661</v>
+        <v>0.04010546332908592</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4621755988.239866</v>
+        <v>3478545090.248305</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1367957065514091</v>
+        <v>0.1964318232815354</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0270913416809981</v>
+        <v>0.0206713176394398</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1249387905.048215</v>
+        <v>1490802589.583525</v>
       </c>
       <c r="F56" t="n">
-        <v>0.156007747032009</v>
+        <v>0.1525042307255341</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04852023067363365</v>
+        <v>0.05473812222858503</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3080573671.276234</v>
+        <v>2789097557.583725</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1534333864326725</v>
+        <v>0.174684843087479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0262403467676751</v>
+        <v>0.02495755104308955</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1757809618.51292</v>
+        <v>1223058767.921796</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1951453625638573</v>
+        <v>0.142217524398685</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03209570593641078</v>
+        <v>0.03548485876967859</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4001454537.701848</v>
+        <v>4607383461.157825</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1291504537155977</v>
+        <v>0.1242007137326042</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03515237168857362</v>
+        <v>0.04442816658249897</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3422190397.558013</v>
+        <v>3505372959.949974</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1622698108102531</v>
+        <v>0.2035259672145487</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03224206412304032</v>
+        <v>0.02651483345233565</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2265957343.639572</v>
+        <v>2140981160.440272</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1376979191953435</v>
+        <v>0.151949903511864</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02180628789943385</v>
+        <v>0.02607545729719435</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2121943729.679499</v>
+        <v>1946005910.995484</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1795258856183053</v>
+        <v>0.1653971836565216</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04986811309697878</v>
+        <v>0.03312210021783512</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3925587275.090314</v>
+        <v>4544302109.576019</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07654197726553623</v>
+        <v>0.105687595431881</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04027386160194462</v>
+        <v>0.04541356964479396</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3569010818.266919</v>
+        <v>5433035906.56629</v>
       </c>
       <c r="F64" t="n">
-        <v>0.126987497304811</v>
+        <v>0.1839497962230938</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03309763267104157</v>
+        <v>0.02937055222965099</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5447931736.866569</v>
+        <v>5319809759.070655</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1416367687648325</v>
+        <v>0.1546517383210073</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03079454010539477</v>
+        <v>0.0315830028563887</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5697967189.958043</v>
+        <v>5320780424.597801</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1430296933991458</v>
+        <v>0.1554563190776194</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04912776189878607</v>
+        <v>0.04127677686457451</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2634586448.889179</v>
+        <v>2817096163.305103</v>
       </c>
       <c r="F67" t="n">
-        <v>0.071371629009282</v>
+        <v>0.08562029678224219</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03248271665833043</v>
+        <v>0.04505215069166565</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4308795087.284164</v>
+        <v>5509156336.437046</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1211449445923668</v>
+        <v>0.1051721415390286</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04602232151054773</v>
+        <v>0.04149279196707312</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1532602161.015854</v>
+        <v>1835597938.182325</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1669657022469424</v>
+        <v>0.1621811652416323</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05584021403080936</v>
+        <v>0.05208431937176087</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3574784874.794091</v>
+        <v>2490465414.138281</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09898725371523694</v>
+        <v>0.08030863860264575</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04042279473742897</v>
+        <v>0.03977755473100992</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3902844589.264161</v>
+        <v>4481362609.349233</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1346131263698792</v>
+        <v>0.1182911814863612</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03241892020167443</v>
+        <v>0.03151119328090922</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2027400591.11029</v>
+        <v>2191570467.955831</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09602016551966532</v>
+        <v>0.09578021339708777</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03898037118840693</v>
+        <v>0.04593122287644208</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2597659468.329242</v>
+        <v>2748166273.543872</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08048277708337055</v>
+        <v>0.0870115192537456</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03316527483774501</v>
+        <v>0.04696045815642563</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3564350215.233537</v>
+        <v>3897506049.478407</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1619680797525367</v>
+        <v>0.1646607668672458</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02395855909122733</v>
+        <v>0.02159881201196021</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1874768912.244411</v>
+        <v>1630250974.394496</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1177462469433567</v>
+        <v>0.1082136236200115</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03074777602834322</v>
+        <v>0.03408019885216053</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4221570150.698195</v>
+        <v>3978107101.595408</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08047175489019928</v>
+        <v>0.1001049305495551</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02963778702865354</v>
+        <v>0.02236138581875691</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2086069986.171814</v>
+        <v>1648879437.497076</v>
       </c>
       <c r="F77" t="n">
-        <v>0.184467693502492</v>
+        <v>0.1143280777876326</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02440969597379989</v>
+        <v>0.0276673820456861</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2958319524.056556</v>
+        <v>3487803048.373659</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1297700680965678</v>
+        <v>0.09327775621783982</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05008934625677729</v>
+        <v>0.03700736775328838</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1872181356.790926</v>
+        <v>1168790297.834769</v>
       </c>
       <c r="F79" t="n">
-        <v>0.152901630601754</v>
+        <v>0.1296014399862505</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03109144502777193</v>
+        <v>0.02723781406373102</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5023494798.149344</v>
+        <v>4649194168.691475</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1067615221605779</v>
+        <v>0.1076793876767027</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02398938323606392</v>
+        <v>0.03002041600978201</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4155062172.554452</v>
+        <v>3177280112.225391</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1079790864874706</v>
+        <v>0.120675402865395</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02391463274344819</v>
+        <v>0.02955929265866965</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5070916126.075388</v>
+        <v>4667038487.927722</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1702019293993265</v>
+        <v>0.198964792489101</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02620960237920383</v>
+        <v>0.02889532837163648</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2203753064.576797</v>
+        <v>1785195001.650264</v>
       </c>
       <c r="F83" t="n">
-        <v>0.127070437948697</v>
+        <v>0.1294223156932102</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04236184085449978</v>
+        <v>0.04083947456188826</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2290961833.128844</v>
+        <v>1658700828.048986</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1066803594153762</v>
+        <v>0.07938788548139181</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04675315788725633</v>
+        <v>0.0418401174620529</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2718508774.496362</v>
+        <v>2394807994.146376</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1687875331806676</v>
+        <v>0.1125787886103893</v>
       </c>
       <c r="G85" t="n">
-        <v>0.048534267663334</v>
+        <v>0.03866803965979265</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2080220034.002051</v>
+        <v>1979309072.07175</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1090694863856465</v>
+        <v>0.1121520550747504</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02544006228228387</v>
+        <v>0.02448881099798581</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1417270066.315843</v>
+        <v>1162686644.432209</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1526435074749628</v>
+        <v>0.1658873762114813</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04445991285833933</v>
+        <v>0.02903090846823811</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2756478954.293357</v>
+        <v>2474048756.431264</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1236596537706751</v>
+        <v>0.1432207447917616</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02645212294334217</v>
+        <v>0.028647856401216</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3330079836.455396</v>
+        <v>2970565606.538597</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1323287788278038</v>
+        <v>0.1463229198829215</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04024619566765417</v>
+        <v>0.03217721897245659</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1850865150.626314</v>
+        <v>1703157779.491081</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09780224505814077</v>
+        <v>0.1184587773207875</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0377608997154705</v>
+        <v>0.03994161191923263</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1731548868.74531</v>
+        <v>1920212958.647514</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1346421277347304</v>
+        <v>0.1512215437371494</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03944029497923369</v>
+        <v>0.04608532319012912</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1927552220.82829</v>
+        <v>1948803651.023313</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09775870259932179</v>
+        <v>0.06896954553563947</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03681765872370032</v>
+        <v>0.04550990212758713</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3146423731.425257</v>
+        <v>3147375988.993141</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1291077398635511</v>
+        <v>0.1391330172254246</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04926249708311261</v>
+        <v>0.04357883864252073</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2210446798.905302</v>
+        <v>2466264832.922575</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1516892932351019</v>
+        <v>0.1288421359295099</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03099144417361272</v>
+        <v>0.0297240432930869</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2698403773.69935</v>
+        <v>2322141383.654509</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1310360584186251</v>
+        <v>0.08801928436844958</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03956520869442113</v>
+        <v>0.05182288180196268</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2238898981.737441</v>
+        <v>2160104072.34797</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1317323652168732</v>
+        <v>0.132157996921758</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04610679636122612</v>
+        <v>0.04278585431135207</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4323990516.931458</v>
+        <v>4712199202.587467</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1285969087265692</v>
+        <v>0.1520029553898349</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0264885607925652</v>
+        <v>0.0188407643718401</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2538998370.242728</v>
+        <v>2450129558.883146</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1210868897432377</v>
+        <v>0.1108476581168782</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02125593010082766</v>
+        <v>0.03242504240438263</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3368381070.683633</v>
+        <v>3041555182.973632</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1421676087059501</v>
+        <v>0.1112980741399269</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02222009585754425</v>
+        <v>0.02445267752782475</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4380563584.488779</v>
+        <v>4099947596.429059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1743187686173095</v>
+        <v>0.111049936008714</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0199163805356285</v>
+        <v>0.02506470920599995</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2248400961.838048</v>
+        <v>2728626917.347062</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1757252039879464</v>
+        <v>0.1904550833890823</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04329824901233601</v>
+        <v>0.0533523185918234</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_139.xlsx
+++ b/output/fit_clients/fit_round_139.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1769405002.251567</v>
+        <v>2082126652.828177</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1025134240008647</v>
+        <v>0.1058158775773166</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03075187647108511</v>
+        <v>0.04130501894595371</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1824869425.675155</v>
+        <v>2409526385.266433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.141198873089659</v>
+        <v>0.1642415938009906</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04987177047924621</v>
+        <v>0.03593570283015953</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3558146158.604505</v>
+        <v>4000064544.704506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1108554991392946</v>
+        <v>0.1430637682583762</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03227753851124021</v>
+        <v>0.03503385246777387</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>80</v>
+      </c>
+      <c r="J4" t="n">
+        <v>138</v>
+      </c>
+      <c r="K4" t="n">
+        <v>141.5860304984585</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2748775644.390591</v>
+        <v>2986148103.858406</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06716544482390745</v>
+        <v>0.1069987535911577</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04117589575488991</v>
+        <v>0.03316429632928202</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>58</v>
+      </c>
+      <c r="J5" t="n">
+        <v>138</v>
+      </c>
+      <c r="K5" t="n">
+        <v>105.3722719573433</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2666500662.037445</v>
+        <v>2183622531.442744</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1080883780249103</v>
+        <v>0.1274623931575304</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04576699369467713</v>
+        <v>0.05006850939887283</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1998849195.60824</v>
+        <v>1932528900.304418</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08557243747816586</v>
+        <v>0.0813624142727513</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03405845226497582</v>
+        <v>0.04909154096409298</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3626570871.607615</v>
+        <v>2531870923.887307</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1886578694677388</v>
+        <v>0.1909738215290488</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03234010122696297</v>
+        <v>0.02702307497618452</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>136</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1553714707.172476</v>
+        <v>1983087155.84116</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1572549568384156</v>
+        <v>0.1277651264583895</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02639279657386007</v>
+        <v>0.03016627486324655</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3940813666.435828</v>
+        <v>4099477565.036922</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1321591630712744</v>
+        <v>0.131966218529797</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04021911231426831</v>
+        <v>0.05057191671147569</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>127</v>
+      </c>
+      <c r="J10" t="n">
+        <v>139</v>
+      </c>
+      <c r="K10" t="n">
+        <v>156.5055379217492</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3958269487.113626</v>
+        <v>4049109546.620673</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1685601474645569</v>
+        <v>0.1627589841999555</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04933771391522636</v>
+        <v>0.04254054742209102</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>60</v>
+      </c>
+      <c r="J11" t="n">
+        <v>139</v>
+      </c>
+      <c r="K11" t="n">
+        <v>153.9904219286311</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2665982773.932674</v>
+        <v>3094413500.923553</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1773936367983412</v>
+        <v>0.1388425182711827</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05156129226875248</v>
+        <v>0.04808390213234448</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3468408559.780485</v>
+        <v>4387207512.784758</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09389998005259181</v>
+        <v>0.09520629888827185</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03128731189089042</v>
+        <v>0.02642727075930954</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>68</v>
+      </c>
+      <c r="J13" t="n">
+        <v>138</v>
+      </c>
+      <c r="K13" t="n">
+        <v>140.4813873977429</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2719359597.305859</v>
+        <v>3813758384.730294</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1578786051785687</v>
+        <v>0.1358003552046605</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0274702801084877</v>
+        <v>0.03675757179941055</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1537064696.393897</v>
+        <v>1788992568.82288</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08584209772573577</v>
+        <v>0.08426845391659105</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03113191143709142</v>
+        <v>0.03632100944108216</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2849469720.708861</v>
+        <v>2081975671.175137</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1007478585834184</v>
+        <v>0.1092109460701234</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0460732645329766</v>
+        <v>0.04370154719887107</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4471370951.533974</v>
+        <v>3663938047.926418</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1717553589522744</v>
+        <v>0.1367105026530893</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03526599015336176</v>
+        <v>0.04526031127092188</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>67</v>
+      </c>
+      <c r="J17" t="n">
+        <v>138</v>
+      </c>
+      <c r="K17" t="n">
+        <v>128.4753501089629</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1073,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3935949544.830171</v>
+        <v>3053801536.119301</v>
       </c>
       <c r="F18" t="n">
-        <v>0.117315590441708</v>
+        <v>0.1123706427086924</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02866766417998892</v>
+        <v>0.02311213128328922</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>36</v>
+      </c>
+      <c r="J18" t="n">
+        <v>135</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1265088602.547967</v>
+        <v>1302569426.520935</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1736959445891594</v>
+        <v>0.1490965545563981</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02484061499527808</v>
+        <v>0.02314733736611539</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2341490856.130653</v>
+        <v>1821571626.024453</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1237031514798237</v>
+        <v>0.1300730918058208</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03066235599857279</v>
+        <v>0.03121254229972894</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2037565274.169744</v>
+        <v>2216010898.802114</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07507632998664987</v>
+        <v>0.1012995806575079</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03077964578395321</v>
+        <v>0.02786282460056498</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2511415182.376561</v>
+        <v>2744610745.688145</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09840273952416256</v>
+        <v>0.0989002119887027</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05688006202663567</v>
+        <v>0.04523516331598848</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>36</v>
+      </c>
+      <c r="J22" t="n">
+        <v>137</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1092792896.516731</v>
+        <v>984488885.2559018</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1260156525796691</v>
+        <v>0.1618585482187758</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04521050572702148</v>
+        <v>0.03757191486507623</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2970520178.71602</v>
+        <v>2921884499.40217</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1124044187098337</v>
+        <v>0.122291603750256</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03008910668225552</v>
+        <v>0.03641275065992468</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>41</v>
+      </c>
+      <c r="J24" t="n">
+        <v>138</v>
+      </c>
+      <c r="K24" t="n">
+        <v>82.80137875450168</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1320,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1074157099.427914</v>
+        <v>1312022396.976836</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07810270858704367</v>
+        <v>0.08595193062476415</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02361449617582784</v>
+        <v>0.02988245681329334</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1355,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1138754586.936831</v>
+        <v>1389791206.814026</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1174034752507374</v>
+        <v>0.08119614773860512</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03725596800122896</v>
+        <v>0.02751084074829975</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1390,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4101376056.372095</v>
+        <v>4646484287.608268</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1167662876894772</v>
+        <v>0.1302704335685404</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01956981763216628</v>
+        <v>0.02448643012459877</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>54</v>
+      </c>
+      <c r="J27" t="n">
+        <v>139</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3348707687.795236</v>
+        <v>3369228998.744541</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1046457068085617</v>
+        <v>0.1297630556371282</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04283038714370515</v>
+        <v>0.03982688072885619</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5090537180.186954</v>
+        <v>5367088586.607691</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1439258112940509</v>
+        <v>0.1224598487852586</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04342127960406909</v>
+        <v>0.03638689522765769</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>128</v>
+      </c>
+      <c r="J29" t="n">
+        <v>139</v>
+      </c>
+      <c r="K29" t="n">
+        <v>168.6026173885218</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2034919554.357047</v>
+        <v>1545490891.053017</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09421999516673879</v>
+        <v>0.1026860530455983</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03111314663137534</v>
+        <v>0.03134019399948589</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>928408579.5946909</v>
+        <v>1308994938.319785</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08173102604650166</v>
+        <v>0.07845812464899692</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03833686103985734</v>
+        <v>0.03568292054160966</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1872708149.220598</v>
+        <v>1451612542.930333</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09114074485281803</v>
+        <v>0.1090460870336534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03419536178319256</v>
+        <v>0.03868905065089451</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1998964958.272204</v>
+        <v>2447720859.372766</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1469783456821515</v>
+        <v>0.1536779269579586</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05285827725647815</v>
+        <v>0.05071085151807617</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1498735363.201664</v>
+        <v>1234352562.49044</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1006577775214397</v>
+        <v>0.112513479545369</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02136500266109731</v>
+        <v>0.02212635547151164</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1130099512.69046</v>
+        <v>1063918357.15874</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08399036877469354</v>
+        <v>0.1103579384166111</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03561429744810835</v>
+        <v>0.04154135550716639</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3010176866.753601</v>
+        <v>2686380492.829012</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1647905296953959</v>
+        <v>0.1731473426577731</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01906290203874693</v>
+        <v>0.01770556428983435</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2017401841.972214</v>
+        <v>2466719072.477554</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1108265080583488</v>
+        <v>0.1029341385138985</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0377358237011361</v>
+        <v>0.02976450094738788</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1543720612.53282</v>
+        <v>1439694247.711053</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09541046507296259</v>
+        <v>0.1152105045018587</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02917412310843899</v>
+        <v>0.03986144680942588</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2140168082.639312</v>
+        <v>1551834549.661424</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1267549597972155</v>
+        <v>0.1336577782843933</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02129451747207507</v>
+        <v>0.02324067821059612</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1632354686.97013</v>
+        <v>1491620017.086653</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1556953938077443</v>
+        <v>0.1071528527779393</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04581316670027932</v>
+        <v>0.03786325189024854</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1974697800.932866</v>
+        <v>2218852253.632767</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1399383209121444</v>
+        <v>0.1145588697913057</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04174192540869576</v>
+        <v>0.03479701102569051</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4185986820.039176</v>
+        <v>3077431746.221184</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1024091568437691</v>
+        <v>0.1013945355501729</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03233727028931483</v>
+        <v>0.0429619637251373</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>51</v>
+      </c>
+      <c r="J42" t="n">
+        <v>135</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2302726681.775721</v>
+        <v>3065763814.117284</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1919513575244282</v>
+        <v>0.1885484353268694</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01927292740492199</v>
+        <v>0.02140741493317122</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1823803440.21251</v>
+        <v>2218206216.686885</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08425062146405035</v>
+        <v>0.08310627115733842</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02799046476631598</v>
+        <v>0.03640752187809761</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2193969788.594318</v>
+        <v>1988862855.975487</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1293861272059111</v>
+        <v>0.1838235991334663</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04559943703914349</v>
+        <v>0.04745411068262571</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3637138447.863574</v>
+        <v>5243932508.253467</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1313259775024253</v>
+        <v>0.1647593280737074</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04825137105749201</v>
+        <v>0.05967010371590242</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>78</v>
+      </c>
+      <c r="J46" t="n">
+        <v>139</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3281600911.697555</v>
+        <v>4839884518.822791</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1891343031072201</v>
+        <v>0.1973252477909801</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04843219098835547</v>
+        <v>0.05892085244020488</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>61</v>
+      </c>
+      <c r="J47" t="n">
+        <v>139</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4035423148.559425</v>
+        <v>4291987679.286854</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09992058867148533</v>
+        <v>0.06892881942351066</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03647805807208554</v>
+        <v>0.03712557892430494</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>57</v>
+      </c>
+      <c r="J48" t="n">
+        <v>139</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1547393447.283833</v>
+        <v>1244025013.67665</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1495979898852572</v>
+        <v>0.1791617449618294</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02924198498169419</v>
+        <v>0.03942840202151664</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3700752422.631873</v>
+        <v>3876460863.432504</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1234948674152138</v>
+        <v>0.148074827164691</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03714014862082207</v>
+        <v>0.04314841927259101</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>47</v>
+      </c>
+      <c r="J50" t="n">
+        <v>139</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>971205851.5417312</v>
+        <v>1135436685.640881</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1434278087545822</v>
+        <v>0.1748113608916734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0496354718154195</v>
+        <v>0.03901083885021954</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3444988402.038918</v>
+        <v>4609098517.242086</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1259732565440218</v>
+        <v>0.09358561483033638</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03957866025111124</v>
+        <v>0.04048750317727428</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>104</v>
+      </c>
+      <c r="J52" t="n">
+        <v>139</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3039045468.101838</v>
+        <v>2971415270.389906</v>
       </c>
       <c r="F53" t="n">
-        <v>0.125412205794118</v>
+        <v>0.1603888416242829</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02801242300670393</v>
+        <v>0.02706234919090251</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>137</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4097412176.592603</v>
+        <v>3082242430.660141</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1627536561228027</v>
+        <v>0.1527787342213014</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04010546332908592</v>
+        <v>0.05251658753823064</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>64</v>
+      </c>
+      <c r="J54" t="n">
+        <v>138</v>
+      </c>
+      <c r="K54" t="n">
+        <v>103.4514909742244</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3478545090.248305</v>
+        <v>3394665502.876931</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1964318232815354</v>
+        <v>0.1881541921302828</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0206713176394398</v>
+        <v>0.02516070482205466</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>64</v>
+      </c>
+      <c r="J55" t="n">
+        <v>138</v>
+      </c>
+      <c r="K55" t="n">
+        <v>114.8590273955724</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1490802589.583525</v>
+        <v>1858832600.236006</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1525042307255341</v>
+        <v>0.1605529751704251</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05473812222858503</v>
+        <v>0.04706675563645574</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2789097557.583725</v>
+        <v>3655650888.894581</v>
       </c>
       <c r="F57" t="n">
-        <v>0.174684843087479</v>
+        <v>0.1239283964293214</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02495755104308955</v>
+        <v>0.02258074311601227</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>56</v>
+      </c>
+      <c r="J57" t="n">
+        <v>138</v>
+      </c>
+      <c r="K57" t="n">
+        <v>137.5426786051947</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1223058767.921796</v>
+        <v>1806019043.543423</v>
       </c>
       <c r="F58" t="n">
-        <v>0.142217524398685</v>
+        <v>0.1361557775984147</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03548485876967859</v>
+        <v>0.0275479977593206</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4607383461.157825</v>
+        <v>3433457328.165906</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1242007137326042</v>
+        <v>0.09115227400032676</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04442816658249897</v>
+        <v>0.04864002647493048</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>67</v>
+      </c>
+      <c r="J59" t="n">
+        <v>139</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3505372959.949974</v>
+        <v>2910227085.924161</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2035259672145487</v>
+        <v>0.1509009950075642</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02651483345233565</v>
+        <v>0.02711233875594291</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2140981160.440272</v>
+        <v>2406318458.778026</v>
       </c>
       <c r="F61" t="n">
-        <v>0.151949903511864</v>
+        <v>0.1379639732935073</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02607545729719435</v>
+        <v>0.02487842806428305</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1946005910.995484</v>
+        <v>1467332848.377851</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1653971836565216</v>
+        <v>0.1439957322817898</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03312210021783512</v>
+        <v>0.0451496350609961</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4544302109.576019</v>
+        <v>4622745582.754642</v>
       </c>
       <c r="F63" t="n">
-        <v>0.105687595431881</v>
+        <v>0.06606269375280666</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04541356964479396</v>
+        <v>0.03018527751701616</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>68</v>
+      </c>
+      <c r="J63" t="n">
+        <v>138</v>
+      </c>
+      <c r="K63" t="n">
+        <v>131.0974800373357</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5433035906.56629</v>
+        <v>3459488841.281573</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1839497962230938</v>
+        <v>0.18047339571411</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02937055222965099</v>
+        <v>0.02340662590833198</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>69</v>
+      </c>
+      <c r="J64" t="n">
+        <v>138</v>
+      </c>
+      <c r="K64" t="n">
+        <v>122.2768028025735</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5319809759.070655</v>
+        <v>4633071151.527252</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1546517383210073</v>
+        <v>0.1151844693315616</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0315830028563887</v>
+        <v>0.02520092378099208</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>116</v>
+      </c>
+      <c r="J65" t="n">
+        <v>139</v>
+      </c>
+      <c r="K65" t="n">
+        <v>146.703452663709</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5320780424.597801</v>
+        <v>5502390493.833838</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1554563190776194</v>
+        <v>0.1345543827601779</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04127677686457451</v>
+        <v>0.03767431621899077</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>68</v>
+      </c>
+      <c r="J66" t="n">
+        <v>139</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2817096163.305103</v>
+        <v>2696515872.348994</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08562029678224219</v>
+        <v>0.09289071671054265</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04505215069166565</v>
+        <v>0.04820839946449866</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5509156336.437046</v>
+        <v>4455807972.199912</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1051721415390286</v>
+        <v>0.139780748233676</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04149279196707312</v>
+        <v>0.03635343444094201</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>70</v>
+      </c>
+      <c r="J68" t="n">
+        <v>138</v>
+      </c>
+      <c r="K68" t="n">
+        <v>133.4434814996568</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1835597938.182325</v>
+        <v>2483405078.219952</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1621811652416323</v>
+        <v>0.1479956101333971</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05208431937176087</v>
+        <v>0.04584839059712027</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2490465414.138281</v>
+        <v>3033892181.817656</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08030863860264575</v>
+        <v>0.08071104381665672</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03977755473100992</v>
+        <v>0.03667431447321688</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>132</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4481362609.349233</v>
+        <v>4238171968.536169</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1182911814863612</v>
+        <v>0.1829039591854309</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03151119328090922</v>
+        <v>0.02898611010006326</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>111</v>
+      </c>
+      <c r="J71" t="n">
+        <v>139</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2191570467.955831</v>
+        <v>1523454736.247187</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09578021339708777</v>
+        <v>0.100874211298837</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04593122287644208</v>
+        <v>0.03973355702245556</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2748166273.543872</v>
+        <v>2215255228.559987</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0870115192537456</v>
+        <v>0.08617518982624343</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04696045815642563</v>
+        <v>0.05052871131319688</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3897506049.478407</v>
+        <v>3073050754.46718</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1646607668672458</v>
+        <v>0.1301011616097538</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02159881201196021</v>
+        <v>0.03217725346040894</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>45</v>
+      </c>
+      <c r="J74" t="n">
+        <v>136</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1630250974.394496</v>
+        <v>1507447302.198256</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1082136236200115</v>
+        <v>0.1646374155095194</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03408019885216053</v>
+        <v>0.02565570220869653</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3978107101.595408</v>
+        <v>3696540053.120588</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1001049305495551</v>
+        <v>0.07560125544224136</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02236138581875691</v>
+        <v>0.02377435463669723</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>64</v>
+      </c>
+      <c r="J76" t="n">
+        <v>138</v>
+      </c>
+      <c r="K76" t="n">
+        <v>117.3336285046136</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1648879437.497076</v>
+        <v>2237556365.179715</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1143280777876326</v>
+        <v>0.1815767217698572</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0276673820456861</v>
+        <v>0.02161169563867201</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3487803048.373659</v>
+        <v>3339255272.17036</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09327775621783982</v>
+        <v>0.09108154801592153</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03700736775328838</v>
+        <v>0.04859817823837086</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>68</v>
+      </c>
+      <c r="J78" t="n">
+        <v>138</v>
+      </c>
+      <c r="K78" t="n">
+        <v>123.97788778403</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1168790297.834769</v>
+        <v>1420625976.949683</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1296014399862505</v>
+        <v>0.1113037486055783</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02723781406373102</v>
+        <v>0.02978008119624245</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4649194168.691475</v>
+        <v>5483991733.741441</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1076793876767027</v>
+        <v>0.08413281019648278</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03002041600978201</v>
+        <v>0.02479789420922126</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>67</v>
+      </c>
+      <c r="J80" t="n">
+        <v>139</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3177280112.225391</v>
+        <v>4521631876.382433</v>
       </c>
       <c r="F81" t="n">
-        <v>0.120675402865395</v>
+        <v>0.1284820132316819</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02955929265866965</v>
+        <v>0.02942192452117754</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>63</v>
+      </c>
+      <c r="J81" t="n">
+        <v>139</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4667038487.927722</v>
+        <v>5001762187.290998</v>
       </c>
       <c r="F82" t="n">
-        <v>0.198964792489101</v>
+        <v>0.1615044321507012</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02889532837163648</v>
+        <v>0.02368553279064227</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>99</v>
+      </c>
+      <c r="J82" t="n">
+        <v>139</v>
+      </c>
+      <c r="K82" t="n">
+        <v>153.4331820087048</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1785195001.650264</v>
+        <v>2261279145.391599</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1294223156932102</v>
+        <v>0.1533374725226693</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04083947456188826</v>
+        <v>0.0374750201650557</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1658700828.048986</v>
+        <v>2561485725.31432</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07938788548139181</v>
+        <v>0.1046110331308933</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0418401174620529</v>
+        <v>0.04614450866712916</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2394807994.146376</v>
+        <v>3164171718.701719</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1125787886103893</v>
+        <v>0.1283755476103758</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03866803965979265</v>
+        <v>0.0428663619801873</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>22</v>
+      </c>
+      <c r="J85" t="n">
+        <v>137</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1979309072.07175</v>
+        <v>2497463453.233513</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1121520550747504</v>
+        <v>0.1652322177173926</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02448881099798581</v>
+        <v>0.01830003657939808</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1162686644.432209</v>
+        <v>1502089400.121953</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1658873762114813</v>
+        <v>0.1796447415857086</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02903090846823811</v>
+        <v>0.03204188982722661</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2474048756.431264</v>
+        <v>2972297062.474743</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1432207447917616</v>
+        <v>0.1360707014614966</v>
       </c>
       <c r="G88" t="n">
-        <v>0.028647856401216</v>
+        <v>0.03178762912423935</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2970565606.538597</v>
+        <v>2229024993.35182</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1463229198829215</v>
+        <v>0.1555108311721814</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03217721897245659</v>
+        <v>0.03740971743845495</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1703157779.491081</v>
+        <v>1812887926.065695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1184587773207875</v>
+        <v>0.1323472882277002</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03994161191923263</v>
+        <v>0.0450592937476092</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1920212958.647514</v>
+        <v>1387784759.584665</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1512215437371494</v>
+        <v>0.1698096206010367</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04608532319012912</v>
+        <v>0.04423576120313381</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1948803651.023313</v>
+        <v>1811179996.988007</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06896954553563947</v>
+        <v>0.1064024507033935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04550990212758713</v>
+        <v>0.04037629791522523</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3147375988.993141</v>
+        <v>3544615026.615607</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1391330172254246</v>
+        <v>0.08652952642518663</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04357883864252073</v>
+        <v>0.04250848159473</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>62</v>
+      </c>
+      <c r="J93" t="n">
+        <v>139</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2466264832.922575</v>
+        <v>1983904626.165505</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1288421359295099</v>
+        <v>0.1621422267342825</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0297240432930869</v>
+        <v>0.03103703645363446</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2322141383.654509</v>
+        <v>2381530668.985749</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08801928436844958</v>
+        <v>0.1376057020596446</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05182288180196268</v>
+        <v>0.03487621658184691</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2160104072.34797</v>
+        <v>1871619901.587485</v>
       </c>
       <c r="F96" t="n">
-        <v>0.132157996921758</v>
+        <v>0.12461850497448</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04278585431135207</v>
+        <v>0.04247443333633467</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4712199202.587467</v>
+        <v>4341322001.935851</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1520029553898349</v>
+        <v>0.1375815450085152</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0188407643718401</v>
+        <v>0.02615645357904854</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>66</v>
+      </c>
+      <c r="J97" t="n">
+        <v>139</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3897,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2450129558.883146</v>
+        <v>3628165079.620453</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1108476581168782</v>
+        <v>0.08267104001754277</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03242504240438263</v>
+        <v>0.02235018671130549</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>32</v>
+      </c>
+      <c r="J98" t="n">
+        <v>139</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3041555182.973632</v>
+        <v>2228516671.183909</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1112980741399269</v>
+        <v>0.143647183269794</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02445267752782475</v>
+        <v>0.03529642811565079</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4099947596.429059</v>
+        <v>3326183036.792777</v>
       </c>
       <c r="F100" t="n">
-        <v>0.111049936008714</v>
+        <v>0.1718295279471041</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02506470920599995</v>
+        <v>0.01767917757599374</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>57</v>
+      </c>
+      <c r="J100" t="n">
+        <v>138</v>
+      </c>
+      <c r="K100" t="n">
+        <v>109.5324383060528</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2728626917.347062</v>
+        <v>2438835443.549687</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1904550833890823</v>
+        <v>0.1343656277742464</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0533523185918234</v>
+        <v>0.05661297921826783</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>138</v>
+      </c>
+      <c r="K101" t="n">
+        <v>61.3894800488418</v>
       </c>
     </row>
   </sheetData>
